--- a/static/bicycle_info.xlsx
+++ b/static/bicycle_info.xlsx
@@ -5,15 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehee/Desktop/LegoHangang/LegoHangang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yehee/Desktop/LegoHangang/LegoHangang/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD5EC1-920C-D346-A1C7-0A3FC1648A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7CB8A-7FAC-834E-A587-1D26A99BCF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" activeTab="10" xr2:uid="{A9620E20-DB4D-4F45-8B83-92170173CE58}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="yeouido" sheetId="1" r:id="rId1"/>
+    <sheet name="nanji" sheetId="2" r:id="rId2"/>
+    <sheet name="dduksum" sheetId="3" r:id="rId3"/>
+    <sheet name="gwangnaru" sheetId="4" r:id="rId4"/>
+    <sheet name="gangseo" sheetId="5" r:id="rId5"/>
+    <sheet name="jamsil" sheetId="6" r:id="rId6"/>
+    <sheet name="mangwon" sheetId="7" r:id="rId7"/>
+    <sheet name="yangwha" sheetId="8" r:id="rId8"/>
+    <sheet name="ichon" sheetId="9" r:id="rId9"/>
+    <sheet name="jamwon" sheetId="10" r:id="rId10"/>
+    <sheet name="banpo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,19 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBE7BD1-A0FA-274C-97A0-CF5FC81627D8}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -628,19 +639,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>37.584947</v>
+        <v>37.529918000000002</v>
       </c>
       <c r="F2">
-        <v>126.820618</v>
+        <v>126.928467</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -648,19 +659,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>37.537751999999998</v>
+        <v>37.524560000000001</v>
       </c>
       <c r="F3">
-        <v>126.90315</v>
+        <v>126.936893</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -671,236 +682,658 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>37.529918000000002</v>
+        <v>37.526318000000003</v>
       </c>
       <c r="F4">
-        <v>126.928467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+        <v>126.933581</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9EFA2-6ECA-DD4D-8CA2-D51C86D1366D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>37.525056999999997</v>
+      </c>
+      <c r="F2">
+        <v>127.016159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55147CF-A831-FA47-B112-1C0EA1CA8319}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>37.512242000000001</v>
+      </c>
+      <c r="F2">
+        <v>127.002357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9D519-7DA1-D34E-9D4F-6564E5CBDF1F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>37.565283999999998</v>
+      </c>
+      <c r="F2">
+        <v>126.880398</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D200D3-1B9A-C44D-A5A4-609511B16E3E}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>37.530887</v>
+      </c>
+      <c r="F2">
+        <v>127.06658400000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>37.528540999999997</v>
+      </c>
+      <c r="F3">
+        <v>127.071826</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D03E9C-7601-8146-AB25-3F2C58F1EB03}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>37.544747999999998</v>
+      </c>
+      <c r="F2">
+        <v>127.119376</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF54D6FD-3CE1-E346-B12C-B12828D91A0E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>37.524560000000001</v>
-      </c>
-      <c r="F5">
-        <v>126.936893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>37.584947</v>
+      </c>
+      <c r="F2">
+        <v>126.820618</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB4EF88-8BD2-AA41-AF7B-CFFE4E03E36F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>37.517892000000003</v>
+      </c>
+      <c r="F2">
+        <v>127.08241700000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2101DF-8D2A-764B-AB25-21AF09EDA929}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>37.556339000000001</v>
+      </c>
+      <c r="F2">
+        <v>126.89422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95905E67-560B-FA4E-8BC6-7A15C7AD5798}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>37.526318000000003</v>
-      </c>
-      <c r="F6">
-        <v>126.933581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>37.512242000000001</v>
-      </c>
-      <c r="F7">
-        <v>127.002357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>37.525056999999997</v>
-      </c>
-      <c r="F8">
-        <v>127.016159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>37.517892000000003</v>
-      </c>
-      <c r="F9">
-        <v>127.08241700000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>37.544747999999998</v>
-      </c>
-      <c r="F10">
-        <v>127.119376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>37.530887</v>
-      </c>
-      <c r="F11">
-        <v>127.06658400000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>37.528540999999997</v>
-      </c>
-      <c r="F12">
-        <v>127.071826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>37.537751999999998</v>
+      </c>
+      <c r="F2">
+        <v>126.90315</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA6CEC2-7020-7949-881D-FA3E854F17FB}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E2">
         <v>37.517266999999997</v>
       </c>
-      <c r="F13">
+      <c r="F2">
         <v>126.968728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>37.556339000000001</v>
-      </c>
-      <c r="F14">
-        <v>126.89422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>37.565283999999998</v>
-      </c>
-      <c r="F15">
-        <v>126.880398</v>
       </c>
     </row>
   </sheetData>
